--- a/data/flow.xlsx
+++ b/data/flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fizzb\Desktop\projects\CI\CI_PracticalPython\CI_PracticalPython\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0D91C-6101-4287-92CF-15A26304636E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC3A176-EADE-4F92-85A9-D548F8F9F9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A880DC42-B988-421F-8617-EDF8F3C534E9}"/>
   </bookViews>

--- a/data/flow.xlsx
+++ b/data/flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fizzb\Desktop\projects\CI\CI_PracticalPython\CI_PracticalPython\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC3A176-EADE-4F92-85A9-D548F8F9F9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D7A121-963D-4EF6-BAC8-FFA2823504FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A880DC42-B988-421F-8617-EDF8F3C534E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Template flow</t>
   </si>
@@ -66,9 +66,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>magical_being</t>
-  </si>
-  <si>
     <t>to be printed on next page (story)</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t xml:space="preserve"> save riddle status (solved/unsolved), saves timestamp in memory (time.end)</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>everything in memory (username, etc)</t>
+  </si>
+  <si>
+    <t>username, color, mystical being</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B261704-BC81-44C6-876B-A0073E5F9417}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,107 +536,98 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
+      <c r="E14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
